--- a/input/static_data/cost/season_16/player_cost_GW21.xlsx
+++ b/input/static_data/cost/season_16/player_cost_GW21.xlsx
@@ -445,37 +445,37 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="11">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C13" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D13" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E13" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F13" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G13" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H13" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I13" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J13" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K13" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L13" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="14">
@@ -977,37 +977,37 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C24" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D24" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E24" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F24" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G24" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H24" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I24" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J24" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K24" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L24" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="25">
@@ -1205,37 +1205,37 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C30" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D30" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E30" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F30" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G30" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H30" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I30" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J30" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K30" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L30" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="31">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>4100000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="C31" t="n">
-        <v>4100000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="D31" t="n">
-        <v>4100000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="E31" t="n">
-        <v>4100000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="F31" t="n">
-        <v>4100000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="G31" t="n">
-        <v>4100000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="H31" t="n">
-        <v>4100000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="I31" t="n">
-        <v>4100000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="J31" t="n">
-        <v>4100000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="K31" t="n">
-        <v>4100000.0</v>
+        <v>3900000.0</v>
       </c>
       <c r="L31" t="n">
-        <v>4100000.0</v>
+        <v>3900000.0</v>
       </c>
     </row>
     <row r="32">
@@ -1319,37 +1319,37 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C33" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D33" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E33" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F33" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G33" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H33" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I33" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J33" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K33" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L33" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="34">
@@ -1433,37 +1433,37 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C36" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D36" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E36" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F36" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G36" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H36" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I36" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J36" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K36" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L36" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="37">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="46">
@@ -1889,37 +1889,37 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="49">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C65" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D65" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E65" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F65" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G65" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H65" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I65" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J65" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K65" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L65" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="66">
@@ -2725,37 +2725,37 @@
         <v>69.0</v>
       </c>
       <c r="B70" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C70" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D70" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E70" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F70" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G70" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H70" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I70" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J70" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K70" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L70" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="71">
@@ -2763,37 +2763,37 @@
         <v>70.0</v>
       </c>
       <c r="B71" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C71" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D71" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E71" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F71" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G71" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H71" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I71" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J71" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K71" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L71" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="72">
@@ -2877,37 +2877,37 @@
         <v>73.0</v>
       </c>
       <c r="B74" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C74" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D74" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E74" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F74" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G74" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H74" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I74" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J74" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K74" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L74" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="75">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C90" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D90" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E90" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F90" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G90" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H90" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I90" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J90" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K90" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L90" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="91">
@@ -3523,37 +3523,37 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="n">
-        <v>3900000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C91" t="n">
-        <v>3900000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D91" t="n">
-        <v>3900000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E91" t="n">
-        <v>3900000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F91" t="n">
-        <v>3900000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G91" t="n">
-        <v>3900000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H91" t="n">
-        <v>3900000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I91" t="n">
-        <v>3900000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J91" t="n">
-        <v>3900000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K91" t="n">
-        <v>3900000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L91" t="n">
-        <v>3900000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="92">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C93" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D93" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E93" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F93" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G93" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H93" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I93" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J93" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K93" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L93" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="94">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C97" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D97" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E97" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F97" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G97" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H97" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I97" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J97" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K97" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L97" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="98">
@@ -3903,37 +3903,37 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="102">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C104" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D104" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E104" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F104" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G104" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H104" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I104" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J104" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K104" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L104" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="105">
@@ -4055,37 +4055,37 @@
         <v>104.0</v>
       </c>
       <c r="B105" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C105" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D105" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E105" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F105" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G105" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H105" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I105" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J105" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K105" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L105" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="106">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C106" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D106" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E106" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F106" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G106" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H106" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I106" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J106" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K106" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L106" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C107" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D107" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E107" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F107" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G107" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H107" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I107" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J107" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K107" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L107" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="108">
@@ -4207,37 +4207,37 @@
         <v>108.0</v>
       </c>
       <c r="B109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="110">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C111" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D111" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E111" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F111" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G111" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H111" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I111" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J111" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K111" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L111" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="112">
@@ -4625,37 +4625,37 @@
         <v>119.0</v>
       </c>
       <c r="B120" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C120" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D120" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E120" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F120" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G120" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H120" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I120" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J120" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K120" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L120" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="121">
@@ -4739,37 +4739,37 @@
         <v>122.0</v>
       </c>
       <c r="B123" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C123" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D123" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E123" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F123" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G123" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H123" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I123" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J123" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K123" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L123" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="124">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C128" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D128" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E128" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F128" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G128" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H128" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I128" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J128" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K128" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L128" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="129">
@@ -4967,37 +4967,37 @@
         <v>128.0</v>
       </c>
       <c r="B129" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C129" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D129" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E129" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F129" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G129" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H129" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I129" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J129" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K129" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L129" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="130">
@@ -5005,37 +5005,37 @@
         <v>129.0</v>
       </c>
       <c r="B130" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C130" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D130" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E130" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F130" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G130" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H130" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I130" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J130" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K130" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L130" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="131">
@@ -5043,37 +5043,37 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="C131" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="D131" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="E131" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="F131" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="G131" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="H131" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="I131" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="J131" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="K131" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="L131" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
     </row>
     <row r="132">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C133" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D133" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E133" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F133" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G133" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H133" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I133" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J133" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K133" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L133" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="134">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C153" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D153" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E153" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F153" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G153" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H153" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I153" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J153" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K153" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L153" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="154">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C156" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D156" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E156" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F156" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G156" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H156" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I156" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J156" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K156" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L156" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="157">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C157" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D157" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E157" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F157" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G157" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H157" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I157" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J157" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K157" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L157" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="158">
@@ -6259,37 +6259,37 @@
         <v>162.0</v>
       </c>
       <c r="B163" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C163" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D163" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E163" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F163" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G163" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H163" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I163" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J163" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K163" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L163" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="164">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C165" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D165" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E165" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F165" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G165" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H165" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I165" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J165" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K165" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L165" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="166">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C168" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D168" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E168" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F168" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G168" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H168" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I168" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J168" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K168" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L168" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="169">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C177" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D177" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E177" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F177" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G177" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H177" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I177" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J177" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K177" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L177" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="178">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C179" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D179" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E179" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F179" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G179" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H179" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I179" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J179" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K179" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L179" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="180">
@@ -6943,37 +6943,37 @@
         <v>180.0</v>
       </c>
       <c r="B181" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C181" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D181" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E181" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F181" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G181" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H181" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I181" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J181" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K181" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L181" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="182">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C187" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D187" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E187" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F187" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G187" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H187" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I187" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J187" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K187" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L187" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="188">
@@ -7741,37 +7741,37 @@
         <v>201.0</v>
       </c>
       <c r="B202" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C202" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D202" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E202" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F202" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G202" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H202" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I202" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J202" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K202" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L202" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="203">
@@ -7779,37 +7779,37 @@
         <v>202.0</v>
       </c>
       <c r="B203" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C203" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D203" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E203" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F203" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G203" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H203" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I203" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J203" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K203" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L203" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="204">
@@ -7855,37 +7855,37 @@
         <v>204.0</v>
       </c>
       <c r="B205" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C205" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D205" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E205" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F205" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G205" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H205" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I205" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J205" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K205" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L205" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="206">
@@ -7893,37 +7893,37 @@
         <v>205.0</v>
       </c>
       <c r="B206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="207">
@@ -7969,37 +7969,37 @@
         <v>207.0</v>
       </c>
       <c r="B208" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C208" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D208" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E208" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F208" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G208" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H208" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I208" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J208" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K208" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L208" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="209">
@@ -8007,37 +8007,37 @@
         <v>208.0</v>
       </c>
       <c r="B209" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C209" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D209" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E209" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F209" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G209" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H209" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I209" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J209" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K209" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L209" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="210">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C213" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D213" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E213" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F213" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G213" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H213" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I213" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J213" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K213" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L213" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="214">
@@ -8501,37 +8501,37 @@
         <v>221.0</v>
       </c>
       <c r="B222" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C222" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D222" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E222" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="F222" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G222" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="H222" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="I222" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="J222" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="K222" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="L222" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="223">
@@ -8995,37 +8995,37 @@
         <v>234.0</v>
       </c>
       <c r="B235" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C235" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D235" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E235" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F235" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G235" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H235" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I235" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J235" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K235" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L235" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="236">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C238" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D238" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E238" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F238" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G238" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H238" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I238" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J238" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K238" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L238" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C242" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D242" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E242" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F242" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G242" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H242" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I242" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J242" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K242" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L242" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="243">
@@ -9603,37 +9603,37 @@
         <v>250.0</v>
       </c>
       <c r="B251" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C251" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D251" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E251" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F251" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G251" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H251" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I251" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J251" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K251" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L251" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="252">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C254" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D254" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E254" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F254" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G254" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H254" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I254" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J254" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K254" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L254" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="255">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C260" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D260" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E260" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F260" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G260" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H260" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I260" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J260" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K260" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L260" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="261">
@@ -10211,37 +10211,37 @@
         <v>266.0</v>
       </c>
       <c r="B267" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C267" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D267" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E267" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F267" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G267" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H267" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I267" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J267" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K267" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L267" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="268">
@@ -10591,37 +10591,37 @@
         <v>276.0</v>
       </c>
       <c r="B277" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C277" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D277" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E277" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F277" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G277" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H277" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I277" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J277" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K277" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L277" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="278">
@@ -10705,37 +10705,37 @@
         <v>279.0</v>
       </c>
       <c r="B280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="C280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="D280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="E280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="F280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="G280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="H280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="I280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="J280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="K280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="L280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="C282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="D282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="E282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="F282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="G282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="H282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="I282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="J282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="K282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="L282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
     </row>
     <row r="283">
@@ -11769,37 +11769,37 @@
         <v>307.0</v>
       </c>
       <c r="B308" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C308" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D308" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E308" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F308" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G308" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H308" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I308" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J308" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K308" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L308" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="309">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C309" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D309" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E309" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F309" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G309" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H309" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I309" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J309" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K309" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L309" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="310">
@@ -11959,37 +11959,37 @@
         <v>312.0</v>
       </c>
       <c r="B313" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C313" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D313" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E313" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F313" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G313" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H313" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I313" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J313" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K313" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L313" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="314">
@@ -12073,37 +12073,37 @@
         <v>315.0</v>
       </c>
       <c r="B316" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C316" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D316" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E316" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F316" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G316" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H316" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I316" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J316" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K316" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L316" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="317">
@@ -12111,37 +12111,37 @@
         <v>316.0</v>
       </c>
       <c r="B317" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C317" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D317" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E317" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F317" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G317" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H317" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I317" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J317" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K317" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L317" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="318">
@@ -12187,37 +12187,37 @@
         <v>318.0</v>
       </c>
       <c r="B319" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C319" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D319" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E319" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F319" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G319" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H319" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I319" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J319" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K319" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L319" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="320">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C323" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D323" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E323" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F323" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G323" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H323" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I323" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J323" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K323" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L323" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="324">
@@ -12377,37 +12377,37 @@
         <v>323.0</v>
       </c>
       <c r="B324" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C324" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D324" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E324" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F324" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G324" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H324" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I324" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J324" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K324" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L324" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="325">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="328">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>1.03E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="C331" t="n">
-        <v>1.03E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="D331" t="n">
-        <v>1.03E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="E331" t="n">
-        <v>1.03E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="F331" t="n">
-        <v>1.03E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="G331" t="n">
-        <v>1.03E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="H331" t="n">
-        <v>1.03E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="I331" t="n">
-        <v>1.03E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="J331" t="n">
-        <v>1.03E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="K331" t="n">
-        <v>1.03E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="L331" t="n">
-        <v>1.03E7</v>
+        <v>1.04E7</v>
       </c>
     </row>
     <row r="332">
@@ -12909,37 +12909,37 @@
         <v>337.0</v>
       </c>
       <c r="B338" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="C338" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="D338" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="E338" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F338" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="G338" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="H338" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="I338" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="J338" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="K338" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="L338" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
     </row>
     <row r="339">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="342">
@@ -13213,37 +13213,37 @@
         <v>345.0</v>
       </c>
       <c r="B346" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C346" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D346" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E346" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F346" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G346" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H346" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I346" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J346" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K346" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L346" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="347">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C351" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D351" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E351" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F351" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G351" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H351" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I351" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J351" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K351" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L351" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="352">
@@ -13631,37 +13631,37 @@
         <v>356.0</v>
       </c>
       <c r="B357" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C357" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D357" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E357" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F357" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G357" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H357" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I357" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J357" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K357" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L357" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="358">
@@ -13745,37 +13745,37 @@
         <v>359.0</v>
       </c>
       <c r="B360" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C360" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D360" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E360" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F360" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G360" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H360" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I360" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J360" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K360" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L360" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="361">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="C364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="D364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="E364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="G364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="H364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="I364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="J364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="K364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="L364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
     </row>
     <row r="365">
@@ -14543,37 +14543,37 @@
         <v>380.0</v>
       </c>
       <c r="B381" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C381" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D381" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E381" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F381" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G381" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H381" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I381" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J381" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K381" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L381" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="382">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="C387" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="D387" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="E387" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="F387" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="G387" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="H387" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="I387" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="J387" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="K387" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="L387" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
     </row>
     <row r="388">
@@ -14885,37 +14885,37 @@
         <v>389.0</v>
       </c>
       <c r="B390" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C390" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D390" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E390" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F390" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G390" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H390" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I390" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J390" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K390" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L390" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="391">
@@ -14999,37 +14999,37 @@
         <v>392.0</v>
       </c>
       <c r="B393" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C393" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D393" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E393" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F393" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G393" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H393" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I393" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J393" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K393" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L393" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="394">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="C395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="D395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="E395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="F395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="G395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="H395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="I395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="J395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="K395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="L395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
     </row>
     <row r="396">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>7100000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="C398" t="n">
-        <v>7100000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="D398" t="n">
-        <v>7100000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="E398" t="n">
-        <v>7100000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="F398" t="n">
-        <v>7100000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="G398" t="n">
-        <v>7100000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="H398" t="n">
-        <v>7100000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="I398" t="n">
-        <v>7100000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="J398" t="n">
-        <v>7100000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="K398" t="n">
-        <v>7100000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="L398" t="n">
-        <v>7100000.0</v>
+        <v>7700000.0</v>
       </c>
     </row>
     <row r="399">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="C400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="D400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="E400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="F400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="G400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="H400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="I400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="J400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="K400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="L400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
     </row>
     <row r="401">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="C406" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="D406" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="E406" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="F406" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="G406" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="H406" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="I406" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="J406" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="K406" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="L406" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
     </row>
     <row r="407">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="C414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="D414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="E414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="F414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="G414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="H414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="I414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="J414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="K414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="L414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
     </row>
     <row r="415">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="C416" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="D416" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="E416" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="F416" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="G416" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="H416" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="I416" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="J416" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="K416" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="L416" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
     </row>
     <row r="417">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C425" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D425" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E425" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F425" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G425" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H425" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I425" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J425" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K425" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L425" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="426">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>8300000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="C428" t="n">
-        <v>8300000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="D428" t="n">
-        <v>8300000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="E428" t="n">
-        <v>8300000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="F428" t="n">
-        <v>8300000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="G428" t="n">
-        <v>8300000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="H428" t="n">
-        <v>8300000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="I428" t="n">
-        <v>8300000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="J428" t="n">
-        <v>8300000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="K428" t="n">
-        <v>8300000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="L428" t="n">
-        <v>8300000.0</v>
+        <v>8500000.0</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>1.17E7</v>
+        <v>1.19E7</v>
       </c>
       <c r="C429" t="n">
-        <v>1.17E7</v>
+        <v>1.19E7</v>
       </c>
       <c r="D429" t="n">
-        <v>1.17E7</v>
+        <v>1.19E7</v>
       </c>
       <c r="E429" t="n">
-        <v>1.17E7</v>
+        <v>1.19E7</v>
       </c>
       <c r="F429" t="n">
-        <v>1.17E7</v>
+        <v>1.19E7</v>
       </c>
       <c r="G429" t="n">
-        <v>1.17E7</v>
+        <v>1.19E7</v>
       </c>
       <c r="H429" t="n">
-        <v>1.17E7</v>
+        <v>1.19E7</v>
       </c>
       <c r="I429" t="n">
-        <v>1.17E7</v>
+        <v>1.19E7</v>
       </c>
       <c r="J429" t="n">
-        <v>1.17E7</v>
+        <v>1.19E7</v>
       </c>
       <c r="K429" t="n">
-        <v>1.17E7</v>
+        <v>1.19E7</v>
       </c>
       <c r="L429" t="n">
-        <v>1.17E7</v>
+        <v>1.19E7</v>
       </c>
     </row>
     <row r="430">
@@ -16937,37 +16937,37 @@
         <v>443.0</v>
       </c>
       <c r="B444" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C444" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D444" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E444" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F444" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G444" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H444" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I444" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J444" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K444" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L444" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="445">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C456" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D456" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E456" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F456" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G456" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H456" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I456" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J456" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K456" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L456" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="457">
@@ -17545,37 +17545,37 @@
         <v>459.0</v>
       </c>
       <c r="B460" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C460" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D460" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E460" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F460" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G460" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H460" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I460" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J460" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K460" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L460" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="461">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="462">
@@ -17697,37 +17697,37 @@
         <v>463.0</v>
       </c>
       <c r="B464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="465">
@@ -17735,37 +17735,37 @@
         <v>464.0</v>
       </c>
       <c r="B465" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C465" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D465" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E465" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F465" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G465" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H465" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I465" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J465" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K465" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L465" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="466">
@@ -18153,37 +18153,37 @@
         <v>475.0</v>
       </c>
       <c r="B476" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C476" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D476" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E476" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F476" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G476" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H476" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I476" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J476" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K476" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L476" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="477">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>8800000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="C482" t="n">
-        <v>8800000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="D482" t="n">
-        <v>8800000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="E482" t="n">
-        <v>8800000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="F482" t="n">
-        <v>8800000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="G482" t="n">
-        <v>8800000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="H482" t="n">
-        <v>8800000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="I482" t="n">
-        <v>8800000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="J482" t="n">
-        <v>8800000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="K482" t="n">
-        <v>8800000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="L482" t="n">
-        <v>8800000.0</v>
+        <v>8700000.0</v>
       </c>
     </row>
     <row r="483">
@@ -18647,37 +18647,37 @@
         <v>488.0</v>
       </c>
       <c r="B489" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C489" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D489" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E489" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F489" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G489" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H489" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I489" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J489" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K489" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L489" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="490">
@@ -18913,37 +18913,37 @@
         <v>495.0</v>
       </c>
       <c r="B496" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C496" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D496" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E496" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F496" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G496" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H496" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I496" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J496" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K496" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L496" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="497">
@@ -19255,37 +19255,37 @@
         <v>504.0</v>
       </c>
       <c r="B505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="506">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C510" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D510" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E510" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F510" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G510" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H510" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I510" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J510" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K510" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L510" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="511">
@@ -19483,37 +19483,37 @@
         <v>510.0</v>
       </c>
       <c r="B511" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C511" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D511" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E511" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F511" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G511" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H511" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I511" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J511" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K511" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L511" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="512">
@@ -19825,37 +19825,37 @@
         <v>519.0</v>
       </c>
       <c r="B520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="521">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C521" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D521" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E521" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F521" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G521" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H521" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I521" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J521" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K521" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L521" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="522">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="C523" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="D523" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E523" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="F523" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="G523" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="H523" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="I523" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="J523" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="K523" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="L523" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
     </row>
     <row r="524">
@@ -20243,37 +20243,37 @@
         <v>530.0</v>
       </c>
       <c r="B531" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C531" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D531" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E531" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F531" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G531" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H531" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I531" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J531" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K531" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L531" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="532">
@@ -20889,37 +20889,37 @@
         <v>547.0</v>
       </c>
       <c r="B548" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C548" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D548" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E548" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F548" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G548" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H548" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I548" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J548" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K548" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L548" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="549">
@@ -21003,37 +21003,37 @@
         <v>550.0</v>
       </c>
       <c r="B551" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C551" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D551" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E551" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F551" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G551" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H551" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I551" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J551" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K551" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L551" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="552">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C552" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D552" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E552" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F552" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G552" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H552" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I552" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J552" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K552" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L552" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="553">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C554" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D554" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E554" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F554" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G554" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H554" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I554" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J554" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K554" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L554" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="555">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>1.07E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="C558" t="n">
-        <v>1.07E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="D558" t="n">
-        <v>1.07E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="E558" t="n">
-        <v>1.07E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="F558" t="n">
-        <v>1.07E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="G558" t="n">
-        <v>1.07E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="H558" t="n">
-        <v>1.07E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="I558" t="n">
-        <v>1.07E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="J558" t="n">
-        <v>1.07E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="K558" t="n">
-        <v>1.07E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="L558" t="n">
-        <v>1.07E7</v>
+        <v>1.03E7</v>
       </c>
     </row>
     <row r="559">
@@ -21307,37 +21307,37 @@
         <v>558.0</v>
       </c>
       <c r="B559" t="n">
-        <v>8300000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="C559" t="n">
-        <v>8300000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="D559" t="n">
-        <v>8300000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="E559" t="n">
-        <v>8300000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="F559" t="n">
-        <v>8300000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="G559" t="n">
-        <v>8300000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="H559" t="n">
-        <v>8300000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="I559" t="n">
-        <v>8300000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="J559" t="n">
-        <v>8300000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="K559" t="n">
-        <v>8300000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="L559" t="n">
-        <v>8300000.0</v>
+        <v>8700000.0</v>
       </c>
     </row>
     <row r="560">
@@ -21421,37 +21421,37 @@
         <v>561.0</v>
       </c>
       <c r="B562" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="C562" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="D562" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="E562" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="F562" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="G562" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="H562" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="I562" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="J562" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="K562" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="L562" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
     </row>
     <row r="563">
@@ -21915,37 +21915,37 @@
         <v>574.0</v>
       </c>
       <c r="B575" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C575" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D575" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E575" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F575" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G575" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H575" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I575" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J575" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K575" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L575" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="576">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="577">
@@ -22105,37 +22105,37 @@
         <v>579.0</v>
       </c>
       <c r="B580" t="n">
-        <v>6200000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C580" t="n">
-        <v>6200000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D580" t="n">
-        <v>6200000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E580" t="n">
-        <v>6200000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F580" t="n">
-        <v>6200000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G580" t="n">
-        <v>6200000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H580" t="n">
-        <v>6200000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I580" t="n">
-        <v>6200000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J580" t="n">
-        <v>6200000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K580" t="n">
-        <v>6200000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L580" t="n">
-        <v>6200000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="581">
@@ -22181,37 +22181,37 @@
         <v>581.0</v>
       </c>
       <c r="B582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="C582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="D582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="E582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="F582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="G582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="H582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="I582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="J582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="K582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="L582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
     </row>
     <row r="583">
@@ -22219,37 +22219,37 @@
         <v>582.0</v>
       </c>
       <c r="B583" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="C583" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="D583" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="E583" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="F583" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="G583" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="H583" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="I583" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="J583" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="K583" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="L583" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
     </row>
     <row r="584">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="C584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="D584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="E584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="F584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="G584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="H584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="I584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="J584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="K584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="L584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>9900000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="C585" t="n">
-        <v>9900000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="D585" t="n">
-        <v>9900000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="E585" t="n">
-        <v>9900000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="F585" t="n">
-        <v>9900000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="G585" t="n">
-        <v>9900000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="H585" t="n">
-        <v>9900000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="I585" t="n">
-        <v>9900000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="J585" t="n">
-        <v>9900000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="K585" t="n">
-        <v>9900000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="L585" t="n">
-        <v>9900000.0</v>
+        <v>9600000.0</v>
       </c>
     </row>
     <row r="586">
@@ -22675,37 +22675,37 @@
         <v>594.0</v>
       </c>
       <c r="B595" t="n">
-        <v>6500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C595" t="n">
-        <v>6500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D595" t="n">
-        <v>6500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E595" t="n">
-        <v>6500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F595" t="n">
-        <v>6500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G595" t="n">
-        <v>6500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H595" t="n">
-        <v>6500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I595" t="n">
-        <v>6500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J595" t="n">
-        <v>6500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K595" t="n">
-        <v>6500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L595" t="n">
-        <v>6500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="596">
@@ -22827,37 +22827,37 @@
         <v>598.0</v>
       </c>
       <c r="B599" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C599" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D599" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E599" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F599" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G599" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H599" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I599" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J599" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K599" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L599" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="600">
@@ -22979,37 +22979,37 @@
         <v>602.0</v>
       </c>
       <c r="B603" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C603" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D603" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E603" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F603" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G603" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H603" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I603" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J603" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K603" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L603" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="604">
@@ -23017,37 +23017,37 @@
         <v>603.0</v>
       </c>
       <c r="B604" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C604" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D604" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E604" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F604" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G604" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H604" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I604" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J604" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K604" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L604" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="605">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="C607" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="D607" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="E607" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="F607" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="G607" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="H607" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="I607" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="J607" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="K607" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="L607" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C608" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D608" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E608" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F608" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G608" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H608" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I608" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J608" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K608" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L608" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="610">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="612">
@@ -23321,37 +23321,37 @@
         <v>611.0</v>
       </c>
       <c r="B612" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C612" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D612" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E612" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F612" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G612" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H612" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I612" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J612" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K612" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L612" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="613">
@@ -23397,37 +23397,37 @@
         <v>613.0</v>
       </c>
       <c r="B614" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C614" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D614" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E614" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F614" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G614" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H614" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I614" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J614" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K614" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L614" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="615">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C616" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D616" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E616" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F616" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G616" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H616" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I616" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J616" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K616" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L616" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="617">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C617" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D617" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E617" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F617" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G617" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H617" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I617" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J617" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K617" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L617" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="C618" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="D618" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="E618" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="F618" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="G618" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="H618" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="I618" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="J618" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="K618" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="L618" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
     </row>
     <row r="619">
@@ -23625,37 +23625,37 @@
         <v>619.0</v>
       </c>
       <c r="B620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L620" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="621">
@@ -23853,37 +23853,37 @@
         <v>625.0</v>
       </c>
       <c r="B626" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C626" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D626" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E626" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F626" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G626" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H626" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I626" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J626" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K626" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L626" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
   </sheetData>
